--- a/docs/Casos de prueba.xlsx
+++ b/docs/Casos de prueba.xlsx
@@ -3,20 +3,159 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Cases" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="GE3 2122 F1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhEB2ekyoKOx80QbMso7BgbkJVJ4w=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mguv+i8+owe5opOmZzE+mSIR/rwYw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="123">
+  <si>
+    <t>Identificator</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>CE_V_01</t>
+  </si>
+  <si>
+    <t>patient_id es UUID válido</t>
+  </si>
+  <si>
+    <t>CE_NV_02</t>
+  </si>
+  <si>
+    <t>patient_id es UUID válido pero antiguo</t>
+  </si>
+  <si>
+    <t>CE_NV_03</t>
+  </si>
+  <si>
+    <t>patient_id no es un UUID válido (no sigue el estándar UUID)</t>
+  </si>
+  <si>
+    <t>CE_V_04</t>
+  </si>
+  <si>
+    <t>registration_type es "Familia"</t>
+  </si>
+  <si>
+    <t>CE_V_05</t>
+  </si>
+  <si>
+    <t>registration_type es "Regular"</t>
+  </si>
+  <si>
+    <t>CE_NV_06</t>
+  </si>
+  <si>
+    <t>registration_type no es string "Familia" ni "Regular"</t>
+  </si>
+  <si>
+    <t>CE_V_07</t>
+  </si>
+  <si>
+    <t>name_surname tiene 30 caracteres o menos y 2 cadenas separadas por espacio</t>
+  </si>
+  <si>
+    <t>CE_NV_08</t>
+  </si>
+  <si>
+    <t>name_surname tiene más de 30 caracteres</t>
+  </si>
+  <si>
+    <t>CE_NV_09</t>
+  </si>
+  <si>
+    <t>name_surname no tiene el formato correcto</t>
+  </si>
+  <si>
+    <t>CE_V_10</t>
+  </si>
+  <si>
+    <t>phone_number es un string válido con 9 números</t>
+  </si>
+  <si>
+    <t>CE_NV_11</t>
+  </si>
+  <si>
+    <t>phone_number es un string con menos de 9 caracteres</t>
+  </si>
+  <si>
+    <t>CE_NV_12</t>
+  </si>
+  <si>
+    <t>phone_number es un string con más de 9 caracteres</t>
+  </si>
+  <si>
+    <t>CE_NV_13</t>
+  </si>
+  <si>
+    <t>phone_number no sigue el formato correcto</t>
+  </si>
+  <si>
+    <t>CE_V_14</t>
+  </si>
+  <si>
+    <t>age (pasado de string a entero) es un entero entre 6 y 125</t>
+  </si>
+  <si>
+    <t>CE_NV_15</t>
+  </si>
+  <si>
+    <t>age (pasado de string a entero) es un entero menor que 6</t>
+  </si>
+  <si>
+    <t>CE_NV_16</t>
+  </si>
+  <si>
+    <t>age (pasado de string a entero) es un entero mayor que 125</t>
+  </si>
+  <si>
+    <t>CE_NV_17</t>
+  </si>
+  <si>
+    <t>age no tiene el formato correcto</t>
+  </si>
+  <si>
+    <t>CE_V_18</t>
+  </si>
+  <si>
+    <t>el componente obtiene firma mediante MD5 al introducir datos válidos</t>
+  </si>
+  <si>
+    <t>CE_V_19</t>
+  </si>
+  <si>
+    <t>El fichero donde se guardan los datos contiene toda la información</t>
+  </si>
+  <si>
+    <t>CE_NV_20</t>
+  </si>
+  <si>
+    <t>Error de lectura de un fichero</t>
+  </si>
+  <si>
+    <t>CE_NV_21</t>
+  </si>
+  <si>
+    <t>Se intenta añadir al fichero un paciente que ya está</t>
+  </si>
+  <si>
+    <t>CE_V_22</t>
+  </si>
+  <si>
+    <t>Se añade el mismo paciente dos veces pero con distintos tipos de registro</t>
+  </si>
   <si>
     <t>#</t>
   </si>
@@ -72,10 +211,7 @@
     <t>VALID</t>
   </si>
   <si>
-    <t>CE_V_01</t>
-  </si>
-  <si>
-    <t>Patient_id es UUID válid</t>
+    <t>CE_V_01, CE_V_05, CE_V_18, CE_V_19, CE_V_07, CE_V_10, CE_V_14</t>
   </si>
   <si>
     <t>"bb5dbd6f-d8b4-413f-8eb9-dd262cfc54e0"</t>
@@ -100,18 +236,12 @@
   </si>
   <si>
     <t>INVALID</t>
-  </si>
-  <si>
-    <t>CE_NV_02</t>
-  </si>
-  <si>
-    <t>Patient_id es UUID válido pero antiguo</t>
   </si>
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
         <sz val="12.0"/>
       </rPr>
       <t>"bb5dbd6f-d8b4-</t>
@@ -140,12 +270,6 @@
     <t>UUID correcta pero antigua</t>
   </si>
   <si>
-    <t>CE_NV_03</t>
-  </si>
-  <si>
-    <t>Patient_id no es un UUID válido (no sigue el estándar UUID)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -167,19 +291,10 @@
     <t>Formato de UUID incorrecto</t>
   </si>
   <si>
-    <t>CE_V_04</t>
-  </si>
-  <si>
-    <t>Registration_type es "Familia"</t>
-  </si>
-  <si>
     <t>Formato de UUID incorrecto (no es string)</t>
   </si>
   <si>
-    <t>CE_V_05</t>
-  </si>
-  <si>
-    <t>Registration_type es "Regular"</t>
+    <t>CE_V_01, CE_V_04, CE_V_18, CE_V_19, CE_V_07, CE_V_10, CE_V_14, CE_V_07</t>
   </si>
   <si>
     <t>"567f65de-5c03-4e8e-ae50-aa6b49b6893f"</t>
@@ -194,24 +309,12 @@
     <t>Prueba correcta con distintos datos</t>
   </si>
   <si>
-    <t>CE_NV_06</t>
-  </si>
-  <si>
-    <t>Registration_type no es string "Familia" ni "Regular"</t>
-  </si>
-  <si>
     <t>"eb6cb027-08e9-4d11-bc85-dabf844bae22"</t>
   </si>
   <si>
     <t>Pedro Son</t>
   </si>
   <si>
-    <t>CE_V_07</t>
-  </si>
-  <si>
-    <t>Name_surname tiene 30 caracteres o menos y 2 cadenas separadas por espacio</t>
-  </si>
-  <si>
     <t>Perros</t>
   </si>
   <si>
@@ -221,43 +324,22 @@
     <t>Registration type incorrecto</t>
   </si>
   <si>
-    <t>CE_NV_08</t>
-  </si>
-  <si>
-    <t>Name_surname tiene más de 30 caracteres</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
-    <t>CE_NV_09</t>
-  </si>
-  <si>
-    <t>Name_surname no tiene el formato correcto</t>
-  </si>
-  <si>
     <t>José Federicogonzaloramonperecianorodríguez</t>
   </si>
   <si>
     <t>Nombre que excede 30 caracteres</t>
   </si>
   <si>
-    <t>CE_V_10</t>
-  </si>
-  <si>
-    <t>Phone_number es un string válido con 9 números</t>
-  </si>
-  <si>
     <t>Feliciano</t>
   </si>
   <si>
     <t>Formato de nombre incorrecto</t>
   </si>
   <si>
-    <t>CE_NV_11</t>
-  </si>
-  <si>
-    <t>Phone_number es un string con menos de 9 caracteres</t>
+    <t>CE_NV_14</t>
   </si>
   <si>
     <t>Pepe González de la Santa Sal</t>
@@ -266,72 +348,30 @@
     <t>Formato de nombre incorrecto (muchas palabras)</t>
   </si>
   <si>
-    <t>CE_NV_12</t>
-  </si>
-  <si>
-    <t>Phone_number es un string con más de 9 caracteres</t>
-  </si>
-  <si>
     <t>Teléfono demasiado corto</t>
   </si>
   <si>
-    <t>CE_NV_13</t>
-  </si>
-  <si>
-    <t>Phone_number no sigue el formato correcto</t>
-  </si>
-  <si>
     <t>Teléfono demasiado largo</t>
   </si>
   <si>
-    <t>CE_V_14</t>
-  </si>
-  <si>
-    <t>Age (pasado de string a entero) es un entero entre 6 y 125</t>
-  </si>
-  <si>
     <t>Esteesmino</t>
   </si>
   <si>
     <t>Teléfono con formato incorrecto</t>
   </si>
   <si>
-    <t>CE_NV_15</t>
-  </si>
-  <si>
-    <t>Age (pasado de string a entero) es un entero menor que 6</t>
-  </si>
-  <si>
     <t>Edad muy baja</t>
   </si>
   <si>
-    <t>CE_NV_16</t>
-  </si>
-  <si>
-    <t>Age (pasado de string a entero) es un entero mayor que 125</t>
-  </si>
-  <si>
     <t>Edad que supera el máximo</t>
   </si>
   <si>
-    <t>CE_NV_17</t>
-  </si>
-  <si>
-    <t>Age no tiene el formato correcto</t>
-  </si>
-  <si>
     <t>64.35</t>
   </si>
   <si>
     <t>Formato de edad incorrecto</t>
   </si>
   <si>
-    <t>CE_V_18</t>
-  </si>
-  <si>
-    <t>El componente obtiene firma mediante MD5 al introducir datos válidos</t>
-  </si>
-  <si>
     <t>"cb3dd087-0868-4203-bbbd-5e7899fbbe2a"</t>
   </si>
   <si>
@@ -341,12 +381,6 @@
     <t>Nuevo ejemplo correcto</t>
   </si>
   <si>
-    <t>CE_V_19</t>
-  </si>
-  <si>
-    <t>El fichero donde se guardan los datos contiene toda la información</t>
-  </si>
-  <si>
     <t>"31e68fe8-13dd-4dd3-9b81-69a66cb80a91"</t>
   </si>
   <si>
@@ -359,12 +393,6 @@
     <t>Pruebo valor de 30 caracteres para nombre y edad mínima (6)</t>
   </si>
   <si>
-    <t>CE_NV_20</t>
-  </si>
-  <si>
-    <t>Error de lectura de un fichero</t>
-  </si>
-  <si>
     <t>"9f159456-9a1c-4bd4-a1e3-b2f181c86b6c"</t>
   </si>
   <si>
@@ -380,12 +408,6 @@
     <t>fichero</t>
   </si>
   <si>
-    <t>CE_NV_21</t>
-  </si>
-  <si>
-    <t>Se intenta añadir al fichero un paciente que ya está</t>
-  </si>
-  <si>
     <t>"6707dad0-c806-4901-87cf-d2e161618f56"</t>
   </si>
   <si>
@@ -399,12 +421,6 @@
   </si>
   <si>
     <t>Mismo paciente con Familiar y Regular. No debe dar error</t>
-  </si>
-  <si>
-    <t>CE_V_22</t>
-  </si>
-  <si>
-    <t>Se añade el mismo paciente dos veces pero con distintos tipos de registro</t>
   </si>
   <si>
     <t>Mismo paciente dos veces. Da error</t>
@@ -414,22 +430,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="7">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
+      <sz val="12.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12.0"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -437,14 +447,13 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color theme="0"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -458,7 +467,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,8 +476,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
-        <bgColor rgb="FF4472C4"/>
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
       </patternFill>
     </fill>
     <fill>
@@ -478,7 +499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
     <border>
       <left style="thin">
@@ -494,63 +515,115 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E2F3"/>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1">
+    <tableStyle count="3" pivot="0" name="GE3 2122 F1-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:N23" displayName="Table_1" id="1">
+  <tableColumns count="14">
+    <tableColumn name="#" id="1"/>
+    <tableColumn name="I/O" id="2"/>
+    <tableColumn name="TECHNIQUE" id="3"/>
+    <tableColumn name="FIELD" id="4"/>
+    <tableColumn name="VALID/INVALID" id="5"/>
+    <tableColumn name="ID TEST" id="6"/>
+    <tableColumn name="DESCRIPTION" id="7"/>
+    <tableColumn name="patient_id " id="8"/>
+    <tableColumn name="registration_type" id="9"/>
+    <tableColumn name="name_surname" id="10"/>
+    <tableColumn name="phone_number" id="11"/>
+    <tableColumn name="age" id="12"/>
+    <tableColumn name="EXPECTED RESULT" id="13"/>
+    <tableColumn name="OBSERVATIONS" id="14"/>
+  </tableColumns>
+  <tableStyleInfo name="GE3 2122 F1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -570,40 +643,40 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -750,1042 +823,204 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.0"/>
-    <col customWidth="1" min="2" max="2" width="3.25"/>
-    <col customWidth="1" min="3" max="3" width="14.0"/>
-    <col customWidth="1" min="4" max="4" width="12.63"/>
-    <col customWidth="1" min="5" max="5" width="15.13"/>
-    <col customWidth="1" min="6" max="6" width="14.0"/>
-    <col customWidth="1" min="7" max="7" width="12.38"/>
-    <col customWidth="1" min="8" max="8" width="66.88"/>
-    <col customWidth="1" min="9" max="9" width="37.63"/>
-    <col customWidth="1" min="10" max="10" width="15.13"/>
-    <col customWidth="1" min="11" max="11" width="39.13"/>
-    <col customWidth="1" min="12" max="12" width="14.38"/>
-    <col customWidth="1" min="14" max="14" width="26.75"/>
-    <col customWidth="1" min="15" max="15" width="52.0"/>
+    <col customWidth="1" min="1" max="1" width="12.56"/>
+    <col customWidth="1" min="2" max="2" width="70.89"/>
+    <col customWidth="1" min="3" max="26" width="10.56"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="1" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="8">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="4" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="4" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="3">
-        <v>9.23412921E8</v>
-      </c>
-      <c r="M3" s="3">
-        <v>45.0</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="4" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="5" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="7" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="3">
-        <v>9.23412921E8</v>
-      </c>
-      <c r="M4" s="3">
-        <v>45.0</v>
-      </c>
-      <c r="N4" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="4" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="6" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="B18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="3">
-        <v>9.23412921E8</v>
-      </c>
-      <c r="M5" s="3">
-        <v>45.0</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="4" t="s">
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="6" t="s">
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="9">
-        <v>99999.0</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="3">
-        <v>9.23412921E8</v>
-      </c>
-      <c r="M6" s="3">
-        <v>45.0</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="5" t="s">
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="4" t="s">
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="4" t="s">
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="3">
-        <v>6.66111222E8</v>
-      </c>
-      <c r="M7" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="3">
-        <v>5.52555222E8</v>
-      </c>
-      <c r="M8" s="3">
-        <v>56.0</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="3">
-        <v>9.23412341E8</v>
-      </c>
-      <c r="M9" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="11">
-        <v>234231.0</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="3">
-        <v>9.23412341E8</v>
-      </c>
-      <c r="M10" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" s="3">
-        <v>9.23412921E8</v>
-      </c>
-      <c r="M11" s="3">
-        <v>45.0</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="3">
-        <v>9.23412921E8</v>
-      </c>
-      <c r="M12" s="3">
-        <v>45.0</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="3">
-        <v>9.23412921E8</v>
-      </c>
-      <c r="M13" s="3">
-        <v>45.0</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="12">
-        <v>99123.0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>45.0</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="12">
-        <v>2.3424534324E10</v>
-      </c>
-      <c r="M15" s="3">
-        <v>45.0</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="3">
-        <v>14.0</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="M16" s="3">
-        <v>45.0</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="3">
-        <v>6.8583839E8</v>
-      </c>
-      <c r="M17" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="3">
-        <v>6.8583839E8</v>
-      </c>
-      <c r="M18" s="12">
-        <v>126.0</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="3">
-        <v>17.0</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="3">
-        <v>6.8583839E8</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="3">
-        <v>18.0</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20" s="3">
-        <v>6.78923456E8</v>
-      </c>
-      <c r="M20" s="13">
-        <v>34.0</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="3">
-        <v>19.0</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="M21" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L22" s="3">
-        <v>9.18234765E8</v>
-      </c>
-      <c r="M22" s="3">
-        <v>125.0</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="3">
-        <v>21.0</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="L23" s="3">
-        <v>9.25902123E8</v>
-      </c>
-      <c r="M23" s="3">
-        <v>89.0</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="3">
-        <v>22.0</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="L24" s="3">
-        <v>9.25902123E8</v>
-      </c>
-      <c r="M24" s="3">
-        <v>89.0</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
+    <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
     <row r="27" ht="15.75" customHeight="1"/>
@@ -2763,6 +1998,2014 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="10.56"/>
+    <col customWidth="1" min="2" max="2" width="14.67"/>
+    <col customWidth="1" min="3" max="3" width="9.56"/>
+    <col customWidth="1" min="4" max="4" width="11.78"/>
+    <col customWidth="1" min="6" max="6" width="10.67"/>
+    <col customWidth="1" min="7" max="7" width="72.33"/>
+    <col customWidth="1" min="8" max="8" width="33.22"/>
+    <col customWidth="1" min="9" max="9" width="15.22"/>
+    <col customWidth="1" min="10" max="10" width="43.22"/>
+    <col customWidth="1" min="11" max="11" width="13.44"/>
+    <col customWidth="1" min="12" max="12" width="9.44"/>
+    <col customWidth="1" min="13" max="13" width="29.78"/>
+    <col customWidth="1" min="14" max="14" width="51.0"/>
+    <col customWidth="1" min="15" max="32" width="10.56"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="9">
+        <v>9.23412921E8</v>
+      </c>
+      <c r="L2" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="9">
+        <v>9.23412921E8</v>
+      </c>
+      <c r="L3" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="9">
+        <v>9.23412921E8</v>
+      </c>
+      <c r="L4" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="11">
+        <v>99999.0</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="9">
+        <v>9.23412921E8</v>
+      </c>
+      <c r="L5" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="9">
+        <v>6.66111222E8</v>
+      </c>
+      <c r="L6" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="9">
+        <v>5.52555222E8</v>
+      </c>
+      <c r="L7" s="9">
+        <v>56.0</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="9">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="9">
+        <v>9.23412341E8</v>
+      </c>
+      <c r="L8" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="14">
+        <v>234231.0</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="9">
+        <v>9.23412341E8</v>
+      </c>
+      <c r="L9" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="9">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="9">
+        <v>9.23412921E8</v>
+      </c>
+      <c r="L10" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="9">
+        <v>9.23412921E8</v>
+      </c>
+      <c r="L11" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="9">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="9">
+        <v>9.23412921E8</v>
+      </c>
+      <c r="L12" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="14">
+        <v>99123.0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="9">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="14">
+        <v>2.3424534324E10</v>
+      </c>
+      <c r="L14" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="9">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="9">
+        <v>45.0</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="9">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="9">
+        <v>6.8583839E8</v>
+      </c>
+      <c r="L16" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="9">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="9">
+        <v>6.8583839E8</v>
+      </c>
+      <c r="L17" s="14">
+        <v>126.0</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="9">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="9">
+        <v>6.8583839E8</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="9">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="9">
+        <v>6.78923456E8</v>
+      </c>
+      <c r="L19" s="16">
+        <v>34.0</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="9">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="9">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K21" s="9">
+        <v>9.18234765E8</v>
+      </c>
+      <c r="L21" s="9">
+        <v>125.0</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="9">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" s="9">
+        <v>9.25902123E8</v>
+      </c>
+      <c r="L22" s="9">
+        <v>89.0</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="9">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="9">
+        <v>9.25902123E8</v>
+      </c>
+      <c r="L23" s="9">
+        <v>89.0</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/docs/Casos de prueba.xlsx
+++ b/docs/Casos de prueba.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\PycharmProjects\G80.2022.T10.EG3\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB906399-5005-4149-8415-9BF3C535D9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F03CA4F-A75E-485C-B479-97527D3B22E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="312">
   <si>
     <t>I/O</t>
   </si>
@@ -76,12 +76,6 @@
     <t>VALID</t>
   </si>
   <si>
-    <t>12345678Z</t>
-  </si>
-  <si>
-    <t>&lt;valid hash for these values&gt;</t>
-  </si>
-  <si>
     <t>INVALID</t>
   </si>
   <si>
@@ -100,12 +94,6 @@
     <t>FILE CONTENT</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Initial brace deleted</t>
-  </si>
-  <si>
     <t>PATH</t>
   </si>
   <si>
@@ -113,9 +101,6 @@
   </si>
   <si>
     <t>1_3_5_6_8_10</t>
-  </si>
-  <si>
-    <t>id_of_your_testcase</t>
   </si>
   <si>
     <t>patient_id</t>
@@ -505,6 +490,528 @@
   <si>
     <t>Teléfono demasiado corto</t>
   </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Ambos</t>
+  </si>
+  <si>
+    <t>test1_get_vaccine_date_ok</t>
+  </si>
+  <si>
+    <t>Caso válido</t>
+  </si>
+  <si>
+    <t>test_get_vaccine_date_ok.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>Código válido</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>DELETION</t>
+  </si>
+  <si>
+    <t>test_vacio</t>
+  </si>
+  <si>
+    <t>Fichero vacío (nodo 1 eliminado)</t>
+  </si>
+  <si>
+    <t>test_vacio.json</t>
+  </si>
+  <si>
+    <t>(vacío)</t>
+  </si>
+  <si>
+    <t>DUPLICATION</t>
+  </si>
+  <si>
+    <t>test_doble</t>
+  </si>
+  <si>
+    <t>Fichero duplicado</t>
+  </si>
+  <si>
+    <t>test_doble.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921"}{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>NT, T</t>
+  </si>
+  <si>
+    <t>test_sinprimerbracket</t>
+  </si>
+  <si>
+    <t>Elimino el primer corchete</t>
+  </si>
+  <si>
+    <t>test_sinprimercorchete.json</t>
+  </si>
+  <si>
+    <t>"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>NT,T</t>
+  </si>
+  <si>
+    <t>test_primerbracketdoble</t>
+  </si>
+  <si>
+    <t>Duplico primero corchete</t>
+  </si>
+  <si>
+    <t>test_primerbracketdoble.json</t>
+  </si>
+  <si>
+    <t>{{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>test_solocorchetes</t>
+  </si>
+  <si>
+    <t>Elimino todo menos corchetes</t>
+  </si>
+  <si>
+    <t>test_solocorchetes.json</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>test_datosdobles</t>
+  </si>
+  <si>
+    <t>Los datos se repiten</t>
+  </si>
+  <si>
+    <t>test_datosdobles.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921""PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>test_sinsegundobracket</t>
+  </si>
+  <si>
+    <t>Falta el segundo corchete</t>
+  </si>
+  <si>
+    <t>test_sinsegundobracket.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921"</t>
+  </si>
+  <si>
+    <t>nt, t</t>
+  </si>
+  <si>
+    <t>test_segundobracketdoble</t>
+  </si>
+  <si>
+    <t>El segundo bracket está repetido</t>
+  </si>
+  <si>
+    <t>test_segundobracketdoble.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921"}}</t>
+  </si>
+  <si>
+    <t>test_primercampodoble</t>
+  </si>
+  <si>
+    <t>El primer campo está duplicado</t>
+  </si>
+  <si>
+    <t>test_primercampodoble.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93""PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>test_sinprimercampo</t>
+  </si>
+  <si>
+    <t>Falta el primer campo</t>
+  </si>
+  <si>
+    <t>test_sinprimercampo.json</t>
+  </si>
+  <si>
+    <t>{,"ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>test_sincoma</t>
+  </si>
+  <si>
+    <t>Falta la coma</t>
+  </si>
+  <si>
+    <t>test_sincoma.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93""ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>test_comadoble</t>
+  </si>
+  <si>
+    <t>Coma doble</t>
+  </si>
+  <si>
+    <t>test_comadoble.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93",,"ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>test_segundocampodoble</t>
+  </si>
+  <si>
+    <t>Segundo campo doble</t>
+  </si>
+  <si>
+    <t>test_segundocampodoble.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921""ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>test_sinsegundocampo</t>
+  </si>
+  <si>
+    <t>Sin segundo campo</t>
+  </si>
+  <si>
+    <t>test_sinsegundocampo.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93",}</t>
+  </si>
+  <si>
+    <t>test_primeraetiquetadoble</t>
+  </si>
+  <si>
+    <t>Etiqueta 1 duplicada</t>
+  </si>
+  <si>
+    <t>test_primeraetiquetadoble.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID""PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>test_sinprimeraetiqueta</t>
+  </si>
+  <si>
+    <t>Etiqueta 1 borrada</t>
+  </si>
+  <si>
+    <t>test_sinprimeraetiqueta.json</t>
+  </si>
+  <si>
+    <t>{:"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>11, 20</t>
+  </si>
+  <si>
+    <t>test_sinigualdad1</t>
+  </si>
+  <si>
+    <t>Primer ":" borrado</t>
+  </si>
+  <si>
+    <t>test_sinigualdad1.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID""1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>test_igualdad1doble</t>
+  </si>
+  <si>
+    <t>Primer ":" duplicado</t>
+  </si>
+  <si>
+    <t>test_igualdad1doble.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID"::"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>test_dato1doble</t>
+  </si>
+  <si>
+    <t>Primer dato duplicado</t>
+  </si>
+  <si>
+    <t>test_dato1doble.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93""1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>test_sindato1</t>
+  </si>
+  <si>
+    <t>Primer dato borrado</t>
+  </si>
+  <si>
+    <t>test_sindato1.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":,"ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>test_segundatiquetadoble</t>
+  </si>
+  <si>
+    <t>Etiqueta 2 duplicada</t>
+  </si>
+  <si>
+    <t>test_segundaetiquetadoble.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber""ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>test_sinsegundaetiqueta</t>
+  </si>
+  <si>
+    <t>Etiqueta 2 borrada</t>
+  </si>
+  <si>
+    <t>test_sinsegundaetiqueta.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93",: "923412921"}</t>
+  </si>
+  <si>
+    <t>test_igualdad2doble</t>
+  </si>
+  <si>
+    <t>Igualdad dos doble</t>
+  </si>
+  <si>
+    <t>test_igualdad2doble.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber":: "923412921"}</t>
+  </si>
+  <si>
+    <t>test_sinigualdad2</t>
+  </si>
+  <si>
+    <t>Igualdad dos eliminada</t>
+  </si>
+  <si>
+    <t>test_sinigualdad2.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber""923412921"}</t>
+  </si>
+  <si>
+    <t>test_dato2doble</t>
+  </si>
+  <si>
+    <t>Dato 2 duplicado</t>
+  </si>
+  <si>
+    <t>test_dato2doble.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921" "923412921"}</t>
+  </si>
+  <si>
+    <t>test_sindato2</t>
+  </si>
+  <si>
+    <t>Dato 2 eliminado</t>
+  </si>
+  <si>
+    <t>test_sindato2.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber":}</t>
+  </si>
+  <si>
+    <t>test_sincomilla1</t>
+  </si>
+  <si>
+    <t>Primeras comillas eliminadas</t>
+  </si>
+  <si>
+    <t>test_sincomilla1.json</t>
+  </si>
+  <si>
+    <t>{""PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>test_comilla1doble</t>
+  </si>
+  <si>
+    <t>Primeras comillas duplicadas</t>
+  </si>
+  <si>
+    <t>test_comilla1doble.json</t>
+  </si>
+  <si>
+    <t>18, 32</t>
+  </si>
+  <si>
+    <t>DUPLICATION / MODIFICATION</t>
+  </si>
+  <si>
+    <t>test_valoretiqueta1doble</t>
+  </si>
+  <si>
+    <t>Primer valor de etiqueta doble</t>
+  </si>
+  <si>
+    <t>test_valoretiqueta1doble.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemIDPatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>No se elimina ya que sería una modificación, que ya está incluida aquí</t>
+  </si>
+  <si>
+    <t>19, 33</t>
+  </si>
+  <si>
+    <t>test_comilla2doble</t>
+  </si>
+  <si>
+    <t>Segundas comillas duplicadas</t>
+  </si>
+  <si>
+    <t>test_comilla2doble.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID"":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>test_sincomilla2</t>
+  </si>
+  <si>
+    <t>Segundas comillas borradas</t>
+  </si>
+  <si>
+    <t>test_sincomilla2.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID:"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>21, 34</t>
+  </si>
+  <si>
+    <t>test_comilla3doble</t>
+  </si>
+  <si>
+    <t>Terceras comillas dobles</t>
+  </si>
+  <si>
+    <t>test_comilla3doble.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":""1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>test_sincomilla3</t>
+  </si>
+  <si>
+    <t>Sin terceras comillas</t>
+  </si>
+  <si>
+    <t>test_sincomilla3.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>23, 36</t>
+  </si>
+  <si>
+    <t>test_comilla4doble</t>
+  </si>
+  <si>
+    <t>Cuarta comilla duplicada</t>
+  </si>
+  <si>
+    <t>test_comilla4doble.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93"","ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>test_sincomilla4</t>
+  </si>
+  <si>
+    <t>Cuarta comilla eliminada</t>
+  </si>
+  <si>
+    <t>test_sincomilla4.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93,"ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>DUPLICATION/MODIFICATION</t>
+  </si>
+  <si>
+    <t>test_valordato1duplicado</t>
+  </si>
+  <si>
+    <t>Valor dato1 duplicado y modificado</t>
+  </si>
+  <si>
+    <t>test_valordato1duplicado.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d931c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>25, 38</t>
+  </si>
+  <si>
+    <t>test_valoretiqueta2doble</t>
+  </si>
+  <si>
+    <t>Valor etiqueta 2 duplicado y modificado por tanto</t>
+  </si>
+  <si>
+    <t>test_valoretiqueta2doble.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumberContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>29, 41</t>
+  </si>
+  <si>
+    <t>test_valordato2doble</t>
+  </si>
+  <si>
+    <t>Valor dato 2 duplicado y por tanto modificado</t>
+  </si>
+  <si>
+    <t>test_valordato2doble.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921923412921"}</t>
+  </si>
 </sst>
 </file>
 
@@ -520,6 +1027,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -621,7 +1129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -651,11 +1159,37 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -695,28 +1229,6 @@
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
       </font>
     </dxf>
     <dxf>
@@ -869,39 +1381,39 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="FIELD"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="VALID/INVALID"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="ID TEST"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="DESCRIPTION" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="DESCRIPTION" dataDxfId="4"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="patient_id "/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="registration_type"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="name_surname"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="phone_number"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="age"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="EXPECTED RESULT" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="OBSERVATIONS" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="EXPECTED RESULT" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="OBSERVATIONS" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="GE3 2021 F1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A1:J43" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C943CFE-479E-4F17-9794-3B0A241BDC37}" name="Table_32" displayName="Table_32" ref="A1:J43" headerRowDxfId="0">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="#"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="NODE"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="TERMINAL  (T) / NO TERMINAL (NT)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="TYPE (DUPLICATION / DELETION / MODIFICATION / VALID)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="ID TEST"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="DESCRIPTION"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="FILE PATH"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="FILE CONTENT"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="EXPECTED RESULT"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="OBSERVATIONS"/>
+    <tableColumn id="1" xr3:uid="{93B13E22-E985-4930-A193-EA9B9D4B2027}" name="#"/>
+    <tableColumn id="2" xr3:uid="{BE1F42EC-89F3-4ED3-A311-BA3B85140EF4}" name="NODE"/>
+    <tableColumn id="3" xr3:uid="{BBE1E901-BCD1-4253-99F2-8AA9F6201F80}" name="TERMINAL  (T) / NO TERMINAL (NT)"/>
+    <tableColumn id="4" xr3:uid="{466D5E0E-10A6-4079-87D9-E2839D0DC345}" name="TYPE (DUPLICATION / DELETION / MODIFICATION / VALID)"/>
+    <tableColumn id="5" xr3:uid="{C749B9BD-54F7-43A3-BF7A-DBB1809A505E}" name="ID TEST"/>
+    <tableColumn id="6" xr3:uid="{B1A1B8DC-3D3C-4E85-99BD-9456D75FC99D}" name="DESCRIPTION"/>
+    <tableColumn id="7" xr3:uid="{2453D50B-47F4-4948-B608-E0408654E0CE}" name="FILE PATH"/>
+    <tableColumn id="8" xr3:uid="{3A33E620-9652-4A0F-AC53-983688774C0B}" name="FILE CONTENT"/>
+    <tableColumn id="9" xr3:uid="{FAC4C052-5274-466B-A80D-15E562E05CA8}" name="EXPECTED RESULT"/>
+    <tableColumn id="10" xr3:uid="{F64D71F0-DE72-41E5-A09A-AEF089CE68AF}" name="OBSERVATIONS"/>
   </tableColumns>
   <tableStyleInfo name="GE3 2021 F2-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="A1:G43" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="A1:G43" headerRowDxfId="1">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="#"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="PATH"/>
@@ -1127,187 +1639,187 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1365,19 +1877,19 @@
         <v>4</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>5</v>
@@ -1391,29 +1903,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K2" s="2">
         <v>923412921</v>
@@ -1422,10 +1934,10 @@
         <v>45</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1439,23 +1951,23 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K3" s="2">
         <v>923412921</v>
@@ -1464,10 +1976,10 @@
         <v>45</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1481,23 +1993,23 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K4" s="2">
         <v>923412921</v>
@@ -1506,14 +2018,14 @@
         <v>45</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1523,23 +2035,23 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H5" s="14">
         <v>99999</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K5" s="2">
         <v>923412921</v>
@@ -1548,10 +2060,10 @@
         <v>45</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="O5" s="24"/>
     </row>
@@ -1560,29 +2072,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K6" s="2">
         <v>666111222</v>
@@ -1591,10 +2103,10 @@
         <v>12</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N6" s="23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1602,29 +2114,29 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K7" s="2">
         <v>552555222</v>
@@ -1633,10 +2145,10 @@
         <v>56</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1650,23 +2162,23 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K8" s="2">
         <v>923412341</v>
@@ -1675,10 +2187,10 @@
         <v>8</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1692,23 +2204,23 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I9" s="13">
         <v>234231</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K9" s="2">
         <v>923412341</v>
@@ -1717,10 +2229,10 @@
         <v>8</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1734,23 +2246,23 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K10" s="2">
         <v>923412921</v>
@@ -1759,10 +2271,10 @@
         <v>45</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1776,23 +2288,23 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K11" s="2">
         <v>923412921</v>
@@ -1801,10 +2313,10 @@
         <v>45</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1818,23 +2330,23 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K12" s="2">
         <v>923412921</v>
@@ -1843,10 +2355,10 @@
         <v>45</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1860,23 +2372,23 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K13" s="13">
         <v>99123</v>
@@ -1885,10 +2397,10 @@
         <v>45</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1902,23 +2414,23 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K14" s="13">
         <v>23424534324</v>
@@ -1927,10 +2439,10 @@
         <v>45</v>
       </c>
       <c r="M14" s="22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N14" s="23" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1944,35 +2456,35 @@
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L15" s="2">
         <v>45</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N15" s="23" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1986,23 +2498,23 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="K16" s="17">
         <v>685838390</v>
@@ -2011,10 +2523,10 @@
         <v>5</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N16" s="23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2028,23 +2540,23 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K17" s="17">
         <v>685838390</v>
@@ -2053,10 +2565,10 @@
         <v>126</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N17" s="23" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2070,35 +2582,35 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="I18" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K18" s="17">
         <v>685838390</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N18" s="23" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2106,29 +2618,29 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K19" s="2">
         <v>678923456</v>
@@ -2137,10 +2649,10 @@
         <v>34</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N19" s="22" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2148,29 +2660,29 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -2179,10 +2691,10 @@
         <v>6</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N20" s="23" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2190,29 +2702,29 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K21" s="2">
         <v>918234765</v>
@@ -2221,10 +2733,10 @@
         <v>125</v>
       </c>
       <c r="M21" s="22" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N21" s="23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2232,29 +2744,29 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="21" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K22" s="1">
         <v>925902123</v>
@@ -2263,10 +2775,10 @@
         <v>89</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="N22" s="23" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2274,29 +2786,29 @@
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K23" s="1">
         <v>925902123</v>
@@ -2305,10 +2817,10 @@
         <v>89</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N23" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3304,8 +3816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3322,31 +3834,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="G1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="8" t="s">
@@ -3354,495 +3866,1107 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="B6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="B9" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="B10" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="B13" s="1">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="B14" s="1">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="B15" s="1">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="B16" s="1">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="B17" s="1">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="B18" s="1">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="B21" s="1">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="B22" s="1">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="B23" s="1">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="B24" s="1">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="B25" s="1">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="B26" s="1">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="B27" s="1">
+        <v>16</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="B28" s="1">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="B29" s="1">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="B30" s="1">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="B38" s="1">
+        <v>22.35</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4871,7 +5995,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>3</v>
@@ -4880,7 +6004,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>5</v>
@@ -4894,11 +6018,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -4911,7 +6035,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -4924,7 +6048,7 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -4937,7 +6061,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -4950,7 +6074,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -4961,7 +6085,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -4972,7 +6096,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -4983,7 +6107,7 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -4994,7 +6118,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -5005,7 +6129,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -5016,7 +6140,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -5027,7 +6151,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -5038,7 +6162,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -5049,7 +6173,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -5060,7 +6184,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>

--- a/docs/Casos de prueba.xlsx
+++ b/docs/Casos de prueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\PycharmProjects\G80.2022.T10.EG3\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F03CA4F-A75E-485C-B479-97527D3B22E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7CA5AC-C531-4BE6-A406-A9D84CA97C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7680" yWindow="2352" windowWidth="23040" windowHeight="12204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="6" r:id="rId1"/>
@@ -1129,7 +1129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1163,6 +1163,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1395,7 +1398,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C943CFE-479E-4F17-9794-3B0A241BDC37}" name="Table_32" displayName="Table_32" ref="A1:J43" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C943CFE-479E-4F17-9794-3B0A241BDC37}" name="Table_32" displayName="Table_32" ref="A1:J43" headerRowDxfId="1">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{93B13E22-E985-4930-A193-EA9B9D4B2027}" name="#"/>
     <tableColumn id="2" xr3:uid="{BE1F42EC-89F3-4ED3-A311-BA3B85140EF4}" name="NODE"/>
@@ -1413,7 +1416,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="A1:G43" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="A1:G43" headerRowDxfId="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="#"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="PATH"/>
@@ -1831,7 +1834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -3816,8 +3819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3828,7 +3831,7 @@
     <col min="5" max="5" width="22.1796875" customWidth="1"/>
     <col min="6" max="6" width="62.1796875" customWidth="1"/>
     <col min="7" max="7" width="9.1796875" customWidth="1"/>
-    <col min="8" max="8" width="36.81640625" customWidth="1"/>
+    <col min="8" max="8" width="66.26953125" customWidth="1"/>
     <col min="9" max="10" width="33.81640625" customWidth="1"/>
     <col min="11" max="28" width="10.54296875" customWidth="1"/>
   </cols>
@@ -4057,7 +4060,7 @@
       <c r="E8" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="28" t="s">
         <v>171</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -4085,7 +4088,7 @@
       <c r="E9" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="28" t="s">
         <v>175</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -4113,7 +4116,7 @@
       <c r="E10" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="28" t="s">
         <v>180</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -4141,7 +4144,7 @@
       <c r="E11" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="28" t="s">
         <v>184</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -4169,7 +4172,7 @@
       <c r="E12" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="28" t="s">
         <v>188</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -4197,7 +4200,7 @@
       <c r="E13" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="28" t="s">
         <v>192</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -4225,7 +4228,7 @@
       <c r="E14" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="28" t="s">
         <v>196</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -4253,7 +4256,7 @@
       <c r="E15" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="28" t="s">
         <v>200</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -4281,7 +4284,7 @@
       <c r="E16" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="28" t="s">
         <v>204</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -4309,7 +4312,7 @@
       <c r="E17" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="28" t="s">
         <v>208</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -4337,7 +4340,7 @@
       <c r="E18" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="28" t="s">
         <v>212</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -4365,7 +4368,7 @@
       <c r="E19" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="28" t="s">
         <v>217</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -4393,7 +4396,7 @@
       <c r="E20" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="28" t="s">
         <v>221</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -4421,7 +4424,7 @@
       <c r="E21" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="28" t="s">
         <v>225</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -4449,7 +4452,7 @@
       <c r="E22" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="28" t="s">
         <v>229</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -4477,7 +4480,7 @@
       <c r="E23" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="29" t="s">
         <v>233</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -4505,7 +4508,7 @@
       <c r="E24" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="28" t="s">
         <v>237</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -4533,7 +4536,7 @@
       <c r="E25" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="28" t="s">
         <v>241</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -4561,7 +4564,7 @@
       <c r="E26" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="28" t="s">
         <v>245</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -4589,7 +4592,7 @@
       <c r="E27" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="28" t="s">
         <v>249</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -4617,7 +4620,7 @@
       <c r="E28" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="28" t="s">
         <v>253</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -4645,7 +4648,7 @@
       <c r="E29" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="28" t="s">
         <v>257</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -4673,7 +4676,7 @@
       <c r="E30" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="28" t="s">
         <v>261</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -4701,7 +4704,7 @@
       <c r="E31" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="28" t="s">
         <v>266</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -4731,7 +4734,7 @@
       <c r="E32" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="28" t="s">
         <v>272</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -4759,7 +4762,7 @@
       <c r="E33" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="28" t="s">
         <v>276</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -4787,7 +4790,7 @@
       <c r="E34" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="28" t="s">
         <v>281</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -4974,7 +4977,7 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="E41" s="27"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -5964,9 +5967,9 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/docs/Casos de prueba.xlsx
+++ b/docs/Casos de prueba.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\PycharmProjects\G80.2022.T10.EG3\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spamy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7CA5AC-C531-4BE6-A406-A9D84CA97C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CE882C-597E-40E1-A394-CAB61412613B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="2352" windowWidth="23040" windowHeight="12204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="346">
   <si>
     <t>I/O</t>
   </si>
@@ -1012,12 +1012,114 @@
   <si>
     <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921923412921"}</t>
   </si>
+  <si>
+    <t>test_sincomilla5</t>
+  </si>
+  <si>
+    <t>Quintas comillas eliminadas</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93",ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>24, 37</t>
+  </si>
+  <si>
+    <t>test_comilla5doble</t>
+  </si>
+  <si>
+    <t>Quintas comillas duplicadas</t>
+  </si>
+  <si>
+    <t>test_sincomilla5.json</t>
+  </si>
+  <si>
+    <t>test_comilla5doble.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93",""ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>test_sincomilla6</t>
+  </si>
+  <si>
+    <t>28, 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sextas comillas eliminadas </t>
+  </si>
+  <si>
+    <t>test_comilla6doble</t>
+  </si>
+  <si>
+    <t>test_sincomilla6.json</t>
+  </si>
+  <si>
+    <t>test_comilla6doble.json</t>
+  </si>
+  <si>
+    <t>test_sincomilla7</t>
+  </si>
+  <si>
+    <t>Séptimas comillas eliminadas</t>
+  </si>
+  <si>
+    <t>test_sincomilla7.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": 923412921"}</t>
+  </si>
+  <si>
+    <t>Sextas comillas duplicadas</t>
+  </si>
+  <si>
+    <t>26, 39</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": ""923412921"}</t>
+  </si>
+  <si>
+    <t>Comilla 7 doble</t>
+  </si>
+  <si>
+    <t>test_comilla7doble</t>
+  </si>
+  <si>
+    <t>30, 42</t>
+  </si>
+  <si>
+    <t>test_sincomilla8</t>
+  </si>
+  <si>
+    <t>Comilla 8 duplicada</t>
+  </si>
+  <si>
+    <t>test_sincomilla8.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921}</t>
+  </si>
+  <si>
+    <t>test_comilla8doble</t>
+  </si>
+  <si>
+    <t>Comilla 8 eliminada</t>
+  </si>
+  <si>
+    <t>test_comilla8doble.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921""}</t>
+  </si>
+  <si>
+    <t>22, 35</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1078,6 +1180,11 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1129,7 +1236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1163,7 +1270,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -1398,7 +1504,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C943CFE-479E-4F17-9794-3B0A241BDC37}" name="Table_32" displayName="Table_32" ref="A1:J43" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C943CFE-479E-4F17-9794-3B0A241BDC37}" name="Table_32" displayName="Table_32" ref="A1:J49" headerRowDxfId="0">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{93B13E22-E985-4930-A193-EA9B9D4B2027}" name="#"/>
     <tableColumn id="2" xr3:uid="{BE1F42EC-89F3-4ED3-A311-BA3B85140EF4}" name="NODE"/>
@@ -1416,7 +1522,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="A1:G43" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="A1:G43" headerRowDxfId="1">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="#"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="PATH"/>
@@ -1634,13 +1740,13 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
-    <col min="2" max="2" width="70.90625" customWidth="1"/>
+    <col min="1" max="1" width="12.53515625" customWidth="1"/>
+    <col min="2" max="2" width="70.921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
@@ -1649,7 +1755,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -1657,7 +1763,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -1665,7 +1771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -1673,7 +1779,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>126</v>
       </c>
@@ -1681,7 +1787,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>127</v>
       </c>
@@ -1689,7 +1795,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>128</v>
       </c>
@@ -1697,7 +1803,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1705,7 +1811,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -1713,7 +1819,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -1721,7 +1827,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1729,7 +1835,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -1737,7 +1843,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -1745,7 +1851,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -1753,7 +1859,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -1761,7 +1867,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1769,7 +1875,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -1777,7 +1883,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -1785,7 +1891,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -1793,7 +1899,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -1801,7 +1907,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -1809,7 +1915,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -1817,7 +1923,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -1838,26 +1944,26 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.15234375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" customWidth="1"/>
-    <col min="7" max="7" width="72.36328125" customWidth="1"/>
-    <col min="8" max="8" width="33.1796875" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" customWidth="1"/>
-    <col min="10" max="10" width="43.1796875" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" customWidth="1"/>
-    <col min="13" max="13" width="29.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.53515625" customWidth="1"/>
+    <col min="2" max="2" width="14.61328125" customWidth="1"/>
+    <col min="3" max="3" width="9.53515625" customWidth="1"/>
+    <col min="4" max="4" width="11.84375" customWidth="1"/>
+    <col min="5" max="5" width="11.15234375" customWidth="1"/>
+    <col min="6" max="6" width="10.61328125" customWidth="1"/>
+    <col min="7" max="7" width="72.3828125" customWidth="1"/>
+    <col min="8" max="8" width="33.15234375" customWidth="1"/>
+    <col min="9" max="9" width="15.15234375" customWidth="1"/>
+    <col min="10" max="10" width="43.15234375" customWidth="1"/>
+    <col min="11" max="11" width="13.4609375" customWidth="1"/>
+    <col min="12" max="12" width="9.4609375" customWidth="1"/>
+    <col min="13" max="13" width="29.84375" customWidth="1"/>
     <col min="14" max="14" width="51" customWidth="1"/>
-    <col min="15" max="32" width="10.54296875" customWidth="1"/>
+    <col min="15" max="32" width="10.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
@@ -1901,7 +2007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1943,7 +2049,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1985,7 +2091,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2027,7 +2133,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -2070,7 +2176,7 @@
       </c>
       <c r="O5" s="24"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2112,7 +2218,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2154,7 +2260,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2196,7 +2302,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2238,7 +2344,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2280,7 +2386,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2322,7 +2428,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2364,7 +2470,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2406,7 +2512,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2448,7 +2554,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2490,7 +2596,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2532,7 +2638,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2574,7 +2680,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2616,7 +2722,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2658,7 +2764,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2700,7 +2806,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2742,7 +2848,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2784,7 +2890,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2826,986 +2932,986 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3819,24 +3925,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.15234375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.54296875" customWidth="1"/>
-    <col min="3" max="3" width="26.54296875" customWidth="1"/>
-    <col min="4" max="4" width="44.08984375" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" customWidth="1"/>
-    <col min="6" max="6" width="62.1796875" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" customWidth="1"/>
-    <col min="8" max="8" width="66.26953125" customWidth="1"/>
-    <col min="9" max="10" width="33.81640625" customWidth="1"/>
-    <col min="11" max="28" width="10.54296875" customWidth="1"/>
+    <col min="1" max="2" width="10.53515625" customWidth="1"/>
+    <col min="3" max="3" width="26.53515625" customWidth="1"/>
+    <col min="4" max="4" width="44.07421875" customWidth="1"/>
+    <col min="5" max="5" width="22.15234375" customWidth="1"/>
+    <col min="6" max="6" width="62.15234375" customWidth="1"/>
+    <col min="7" max="7" width="9.15234375" customWidth="1"/>
+    <col min="8" max="8" width="66.23046875" customWidth="1"/>
+    <col min="9" max="10" width="33.84375" customWidth="1"/>
+    <col min="11" max="28" width="10.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -3868,7 +3974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3898,7 +4004,7 @@
       </c>
       <c r="J2" s="25"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3928,7 +4034,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3958,7 +4064,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3988,7 +4094,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4018,7 +4124,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>3</v>
@@ -4046,7 +4152,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>3</v>
@@ -4060,7 +4166,7 @@
       <c r="E8" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="27" t="s">
         <v>171</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -4074,7 +4180,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>4.9000000000000004</v>
@@ -4088,7 +4194,7 @@
       <c r="E9" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="27" t="s">
         <v>175</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -4102,7 +4208,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>4.9000000000000004</v>
@@ -4116,7 +4222,7 @@
       <c r="E10" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="27" t="s">
         <v>180</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -4130,7 +4236,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>6</v>
@@ -4144,7 +4250,7 @@
       <c r="E11" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="27" t="s">
         <v>184</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -4158,7 +4264,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>6</v>
@@ -4172,7 +4278,7 @@
       <c r="E12" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="27" t="s">
         <v>188</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -4186,7 +4292,7 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>7</v>
@@ -4200,7 +4306,7 @@
       <c r="E13" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="27" t="s">
         <v>192</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -4214,7 +4320,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>7</v>
@@ -4228,7 +4334,7 @@
       <c r="E14" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="27" t="s">
         <v>196</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -4242,7 +4348,7 @@
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
         <v>8</v>
@@ -4256,7 +4362,7 @@
       <c r="E15" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="27" t="s">
         <v>200</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -4270,7 +4376,7 @@
       </c>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>8</v>
@@ -4284,7 +4390,7 @@
       <c r="E16" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="27" t="s">
         <v>204</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -4298,7 +4404,7 @@
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>10</v>
@@ -4312,7 +4418,7 @@
       <c r="E17" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="27" t="s">
         <v>208</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -4326,7 +4432,7 @@
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>10</v>
@@ -4340,7 +4446,7 @@
       <c r="E18" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="27" t="s">
         <v>212</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -4354,7 +4460,7 @@
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>215</v>
@@ -4368,7 +4474,7 @@
       <c r="E19" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="27" t="s">
         <v>217</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -4382,7 +4488,7 @@
       </c>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>215</v>
@@ -4396,7 +4502,7 @@
       <c r="E20" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="27" t="s">
         <v>221</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -4410,7 +4516,7 @@
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>12</v>
@@ -4424,7 +4530,7 @@
       <c r="E21" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="27" t="s">
         <v>225</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -4438,7 +4544,7 @@
       </c>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>12</v>
@@ -4452,7 +4558,7 @@
       <c r="E22" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="27" t="s">
         <v>229</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -4466,7 +4572,7 @@
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>14</v>
@@ -4480,7 +4586,7 @@
       <c r="E23" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="28" t="s">
         <v>233</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -4494,7 +4600,7 @@
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
         <v>14</v>
@@ -4508,7 +4614,7 @@
       <c r="E24" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="27" t="s">
         <v>237</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -4522,7 +4628,7 @@
       </c>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>15</v>
@@ -4536,7 +4642,7 @@
       <c r="E25" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="27" t="s">
         <v>241</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -4550,7 +4656,7 @@
       </c>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
         <v>15</v>
@@ -4564,7 +4670,7 @@
       <c r="E26" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="27" t="s">
         <v>245</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -4578,7 +4684,7 @@
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>16</v>
@@ -4592,7 +4698,7 @@
       <c r="E27" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="27" t="s">
         <v>249</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -4606,7 +4712,7 @@
       </c>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
         <v>16</v>
@@ -4620,7 +4726,7 @@
       <c r="E28" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="27" t="s">
         <v>253</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -4634,7 +4740,7 @@
       </c>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <v>17</v>
@@ -4648,7 +4754,7 @@
       <c r="E29" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="27" t="s">
         <v>257</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -4662,7 +4768,7 @@
       </c>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1">
         <v>17</v>
@@ -4676,7 +4782,7 @@
       <c r="E30" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="27" t="s">
         <v>261</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -4690,7 +4796,7 @@
       </c>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>263</v>
@@ -4704,7 +4810,7 @@
       <c r="E31" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="27" t="s">
         <v>266</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -4720,7 +4826,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>270</v>
@@ -4734,7 +4840,7 @@
       <c r="E32" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="27" t="s">
         <v>272</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -4748,7 +4854,7 @@
       </c>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>270</v>
@@ -4762,7 +4868,7 @@
       <c r="E33" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="27" t="s">
         <v>276</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -4776,7 +4882,7 @@
       </c>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>279</v>
@@ -4790,7 +4896,7 @@
       <c r="E34" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="27" t="s">
         <v>281</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -4804,7 +4910,7 @@
       </c>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>279</v>
@@ -4832,7 +4938,7 @@
       </c>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>288</v>
@@ -4860,7 +4966,7 @@
       </c>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>288</v>
@@ -4888,10 +4994,10 @@
       </c>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
-      <c r="B38" s="1">
-        <v>22.35</v>
+      <c r="B38" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>156</v>
@@ -4916,7 +5022,7 @@
       </c>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>302</v>
@@ -4944,7 +5050,7 @@
       </c>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>307</v>
@@ -4972,1000 +5078,1195 @@
       </c>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
@@ -5982,18 +6283,18 @@
       <selection activeCell="D16" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.15234375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" customWidth="1"/>
-    <col min="4" max="4" width="62.1796875" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" customWidth="1"/>
-    <col min="6" max="7" width="33.81640625" customWidth="1"/>
-    <col min="8" max="25" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.53515625" customWidth="1"/>
+    <col min="2" max="2" width="15.53515625" customWidth="1"/>
+    <col min="3" max="3" width="22.15234375" customWidth="1"/>
+    <col min="4" max="4" width="62.15234375" customWidth="1"/>
+    <col min="5" max="5" width="9.15234375" customWidth="1"/>
+    <col min="6" max="7" width="33.84375" customWidth="1"/>
+    <col min="8" max="25" width="10.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
@@ -6016,7 +6317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6031,7 +6332,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -6044,7 +6345,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -6057,7 +6358,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -6070,7 +6371,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -6083,7 +6384,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -6094,7 +6395,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -6105,7 +6406,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -6116,7 +6417,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -6127,7 +6428,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -6138,7 +6439,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -6149,7 +6450,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -6160,7 +6461,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -6171,7 +6472,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -6182,7 +6483,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -6193,7 +6494,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -6202,7 +6503,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -6211,7 +6512,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -6220,7 +6521,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -6229,7 +6530,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -6238,7 +6539,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -6247,7 +6548,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -6256,7 +6557,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -6265,7 +6566,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -6274,7 +6575,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -6283,7 +6584,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -6292,7 +6593,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -6301,7 +6602,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -6310,7 +6611,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -6319,7 +6620,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -6328,7 +6629,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -6337,7 +6638,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -6346,7 +6647,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -6355,7 +6656,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -6364,7 +6665,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -6373,7 +6674,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -6382,7 +6683,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -6391,7 +6692,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -6400,7 +6701,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -6409,7 +6710,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -6418,7 +6719,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -6427,7 +6728,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -6436,963 +6737,963 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/docs/Casos de prueba.xlsx
+++ b/docs/Casos de prueba.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spamy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spamy\PycharmProjects\G80.2022.T10.EG3\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CE882C-597E-40E1-A394-CAB61412613B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327D5261-6CCB-42E3-BF08-92AD82ED4B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="410">
   <si>
     <t>I/O</t>
   </si>
@@ -1113,6 +1113,198 @@
   </si>
   <si>
     <t>22, 35</t>
+  </si>
+  <si>
+    <t>MODIFICATION</t>
+  </si>
+  <si>
+    <t>test_corchete1modificado</t>
+  </si>
+  <si>
+    <t>El primer corchete es una 'a'.</t>
+  </si>
+  <si>
+    <t>test_corchete1modificado.json</t>
+  </si>
+  <si>
+    <t>a"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>test_corchete2modificado</t>
+  </si>
+  <si>
+    <t>El segundo corchete es 77</t>
+  </si>
+  <si>
+    <t>test_corchete2modificado.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921"77</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>test_comamodificada</t>
+  </si>
+  <si>
+    <t>La coma es una c</t>
+  </si>
+  <si>
+    <t>test_comamodificada.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93"c"ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>test_igualdad1modificada</t>
+  </si>
+  <si>
+    <t>La primera igualdad es una g</t>
+  </si>
+  <si>
+    <t>test_igualdad1modificada.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID"g"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "923412921"}</t>
+  </si>
+  <si>
+    <t>test_igualdad2modificada</t>
+  </si>
+  <si>
+    <t>La segunda igualdad es un guion (-)</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber"-"923412921"}</t>
+  </si>
+  <si>
+    <t>test_comilla1modificada</t>
+  </si>
+  <si>
+    <t>La primera comilla es 10</t>
+  </si>
+  <si>
+    <t>{10PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber":"923412921"}</t>
+  </si>
+  <si>
+    <t>test_comilla2modificada</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID7:"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber":"923412921"}</t>
+  </si>
+  <si>
+    <t>La segunda comilla es 7</t>
+  </si>
+  <si>
+    <t>test_comilla3modificada</t>
+  </si>
+  <si>
+    <t>La tercera comilla es 7</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":71c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber":"923412921"}</t>
+  </si>
+  <si>
+    <t>test_comilla4modificada</t>
+  </si>
+  <si>
+    <t>La cuarta comilla es 'a'</t>
+  </si>
+  <si>
+    <t>test_comilla4modificada.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93a,"ContactPhoneNumber":"923412921"}</t>
+  </si>
+  <si>
+    <t>test_comilla5modificada</t>
+  </si>
+  <si>
+    <t>La quinta comilla es 'a'</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93",aContactPhoneNumber":"923412921"}</t>
+  </si>
+  <si>
+    <t>test_comilla6modificada</t>
+  </si>
+  <si>
+    <t>test_test_comilla6modificada.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumberm:"923412921"}</t>
+  </si>
+  <si>
+    <t>La sexta comilla es 'm'</t>
+  </si>
+  <si>
+    <t>test_comilla7modificada</t>
+  </si>
+  <si>
+    <t>La séptima comilla es 'numero'</t>
+  </si>
+  <si>
+    <t>test_test_comilla7modificada.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber":numero923412921"}</t>
+  </si>
+  <si>
+    <t>test_comilla8modificada</t>
+  </si>
+  <si>
+    <t>test_test_comilla8modificada.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber":"923412921a}</t>
+  </si>
+  <si>
+    <t>La octava comilla es 'a'</t>
+  </si>
+  <si>
+    <t>test_valoretiqueta1modificado</t>
+  </si>
+  <si>
+    <t>PatientSystemID' es 'ID'</t>
+  </si>
+  <si>
+    <t>{"ID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber":"923412921"}</t>
+  </si>
+  <si>
+    <t>test_valoretiqueta1modificado.json</t>
+  </si>
+  <si>
+    <t>test_valordato1modificado</t>
+  </si>
+  <si>
+    <t>Valor de 'PatientSystemID' es 3</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"3","ContactPhoneNumber":"923412921"}</t>
+  </si>
+  <si>
+    <t>test_valoretiqueta2modificado</t>
+  </si>
+  <si>
+    <t>ContactPhoneNumber' es a</t>
+  </si>
+  <si>
+    <t>test_valoretiqueta2modificado.json</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","a": "923412921"}</t>
+  </si>
+  <si>
+    <t>test_valordato2modificado</t>
+  </si>
+  <si>
+    <t>valor de 'ContactPhoneNumber' es ?</t>
+  </si>
+  <si>
+    <t>{"PatientSystemID":"1c3349220ec3a91d8848c03e5d272d93","ContactPhoneNumber": "?"}</t>
+  </si>
+  <si>
+    <t>test_valordato2modificado.json</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1272,6 +1464,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1504,7 +1697,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C943CFE-479E-4F17-9794-3B0A241BDC37}" name="Table_32" displayName="Table_32" ref="A1:J49" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C943CFE-479E-4F17-9794-3B0A241BDC37}" name="Table_32" displayName="Table_32" ref="A1:J65" headerRowDxfId="1">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{93B13E22-E985-4930-A193-EA9B9D4B2027}" name="#"/>
     <tableColumn id="2" xr3:uid="{BE1F42EC-89F3-4ED3-A311-BA3B85140EF4}" name="NODE"/>
@@ -1522,7 +1715,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="A1:G43" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="A1:G43" headerRowDxfId="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="#"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="PATH"/>
@@ -3925,8 +4118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.15234375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5304,47 +5497,481 @@
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="1"/>
+      <c r="B49" s="1">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H50" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1">
+        <v>13</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1">
+        <v>20</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H52" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1">
+        <v>27</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H53" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1">
+        <v>31</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H54" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1">
+        <v>33</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1">
+        <v>34</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H56" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1">
+        <v>36</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="H57" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1">
+        <v>37</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="H58" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1">
+        <v>39</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="H59" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1">
+        <v>40</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H60" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1">
+        <v>42</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="H61" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1">
+        <v>32</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="H62" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1">
+        <v>35</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F63" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H63" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1">
+        <v>38</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H64" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1">
+        <v>41</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F65" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="H65" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/docs/Casos de prueba.xlsx
+++ b/docs/Casos de prueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spamy\PycharmProjects\G80.2022.T10.EG3\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327D5261-6CCB-42E3-BF08-92AD82ED4B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13563AE5-F3E3-4C1F-849E-B2EE021F2FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="411">
   <si>
     <t>I/O</t>
   </si>
@@ -302,9 +302,6 @@
     <t>Toby Woof</t>
   </si>
   <si>
-    <t>José Federicogonzaloramonperecianorodríguez</t>
-  </si>
-  <si>
     <t>Feliciano</t>
   </si>
   <si>
@@ -389,15 +386,9 @@
     <t>Esternilocideo Masterianosones</t>
   </si>
   <si>
-    <t>Pruebo valor de 30 caracteres para nombre y edad mínima (6)</t>
-  </si>
-  <si>
     <t>C J</t>
   </si>
   <si>
-    <t>Pruebo valor máximo de edad y nombre corto</t>
-  </si>
-  <si>
     <t>INPUT/OUTPUT</t>
   </si>
   <si>
@@ -428,27 +419,15 @@
     <t>Registration type incorrecto</t>
   </si>
   <si>
-    <t>Nombre que excede 30 caracteres</t>
-  </si>
-  <si>
     <t>Formato de nombre incorrecto</t>
   </si>
   <si>
     <t>Formato de nombre incorrecto (muchas palabras)</t>
   </si>
   <si>
-    <t>Teléfono demasiado largo</t>
-  </si>
-  <si>
     <t>Teléfono con formato incorrecto</t>
   </si>
   <si>
-    <t>Edad muy baja</t>
-  </si>
-  <si>
-    <t>Edad que supera el máximo</t>
-  </si>
-  <si>
     <t>Formato de edad incorrecto</t>
   </si>
   <si>
@@ -488,9 +467,6 @@
     <t>"31e68fe8-13dd-4dd3-9b81-69a66cb80a91"</t>
   </si>
   <si>
-    <t>Teléfono demasiado corto</t>
-  </si>
-  <si>
     <t>Todos</t>
   </si>
   <si>
@@ -1305,6 +1281,33 @@
   </si>
   <si>
     <t>test_valordato2modificado.json</t>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>Edad muy baja (Valor límite)</t>
+  </si>
+  <si>
+    <t>Edad que supera el máximo (Valor límite)</t>
+  </si>
+  <si>
+    <t>Teléfono demasiado corto (Valor límite)</t>
+  </si>
+  <si>
+    <t>Teléfono demasiado largo (Valor límite)</t>
+  </si>
+  <si>
+    <t>Pruebo valor de 30 caracteres (valor límite) para nombre y edad mínima (6, valor límite)</t>
+  </si>
+  <si>
+    <t>Pruebo valor máximo de edad y nombre corto (valor límite de nombre)</t>
+  </si>
+  <si>
+    <t>UnNombreDeMas TreintaCaracteres</t>
+  </si>
+  <si>
+    <t>Nombre de 31 caracteres (valor límite)</t>
   </si>
 </sst>
 </file>
@@ -1675,8 +1678,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A1:N23" headerRowDxfId="5">
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A1:O23" headerRowDxfId="5">
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="#"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="I/O"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="TECHNIQUE"/>
@@ -1691,6 +1694,7 @@
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="age"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="EXPECTED RESULT" dataDxfId="3"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="OBSERVATIONS" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{B47BB01F-5F35-4891-9AA2-271CBCCB3D5A}" name="Columna1"/>
   </tableColumns>
   <tableStyleInfo name="GE3 2021 F1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1930,7 +1934,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1974,7 +1978,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>40</v>
@@ -1982,7 +1986,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>41</v>
@@ -1990,10 +1994,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -2017,7 +2021,7 @@
         <v>55</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -2033,7 +2037,7 @@
         <v>57</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -2041,7 +2045,7 @@
         <v>58</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -2049,15 +2053,15 @@
         <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -2065,15 +2069,15 @@
         <v>61</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -2081,12 +2085,12 @@
         <v>62</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>51</v>
@@ -2094,7 +2098,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>52</v>
@@ -2105,7 +2109,7 @@
         <v>63</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -2113,7 +2117,7 @@
         <v>64</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -2121,7 +2125,7 @@
         <v>65</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2133,8 +2137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.15234375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2152,8 +2156,9 @@
     <col min="11" max="11" width="13.4609375" customWidth="1"/>
     <col min="12" max="12" width="9.4609375" customWidth="1"/>
     <col min="13" max="13" width="29.84375" customWidth="1"/>
-    <col min="14" max="14" width="51" customWidth="1"/>
-    <col min="15" max="32" width="10.53515625" customWidth="1"/>
+    <col min="14" max="14" width="67.07421875" customWidth="1"/>
+    <col min="15" max="15" width="22.84375" customWidth="1"/>
+    <col min="16" max="32" width="10.53515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2199,26 +2204,29 @@
       <c r="N1" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="O1" s="9" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>67</v>
@@ -2239,7 +2247,7 @@
         <v>28</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2281,7 +2289,7 @@
         <v>29</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2323,7 +2331,7 @@
         <v>29</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2365,7 +2373,7 @@
         <v>29</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O5" s="24"/>
     </row>
@@ -2374,20 +2382,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>71</v>
@@ -2396,7 +2404,7 @@
         <v>70</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K6" s="2">
         <v>666111222</v>
@@ -2408,7 +2416,7 @@
         <v>28</v>
       </c>
       <c r="N6" s="23" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2416,20 +2424,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>73</v>
@@ -2450,7 +2458,7 @@
         <v>28</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2471,13 +2479,13 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>67</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>74</v>
@@ -2492,7 +2500,7 @@
         <v>29</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2513,7 +2521,7 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>67</v>
@@ -2534,7 +2542,7 @@
         <v>29</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2548,7 +2556,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>12</v>
@@ -2564,7 +2572,7 @@
         <v>30</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>75</v>
+        <v>409</v>
       </c>
       <c r="K10" s="2">
         <v>923412921</v>
@@ -2576,7 +2584,7 @@
         <v>29</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2590,7 +2598,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>12</v>
@@ -2606,7 +2614,7 @@
         <v>30</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K11" s="2">
         <v>923412921</v>
@@ -2618,7 +2626,7 @@
         <v>29</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2632,7 +2640,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>12</v>
@@ -2648,7 +2656,7 @@
         <v>30</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K12" s="2">
         <v>923412921</v>
@@ -2660,7 +2668,7 @@
         <v>29</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2693,7 +2701,7 @@
         <v>66</v>
       </c>
       <c r="K13" s="13">
-        <v>99123</v>
+        <v>12345678</v>
       </c>
       <c r="L13" s="2">
         <v>45</v>
@@ -2702,7 +2710,7 @@
         <v>29</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>137</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2735,7 +2743,7 @@
         <v>66</v>
       </c>
       <c r="K14" s="13">
-        <v>23424534324</v>
+        <v>9123456789</v>
       </c>
       <c r="L14" s="2">
         <v>45</v>
@@ -2744,7 +2752,7 @@
         <v>29</v>
       </c>
       <c r="N14" s="23" t="s">
-        <v>120</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2777,7 +2785,7 @@
         <v>66</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L15" s="2">
         <v>45</v>
@@ -2786,7 +2794,7 @@
         <v>29</v>
       </c>
       <c r="N15" s="23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2828,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="N16" s="23" t="s">
-        <v>122</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2849,7 +2857,7 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>67</v>
@@ -2870,7 +2878,7 @@
         <v>29</v>
       </c>
       <c r="N17" s="23" t="s">
-        <v>123</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2906,13 +2914,13 @@
         <v>685838390</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M18" s="22" t="s">
         <v>29</v>
       </c>
       <c r="N18" s="23" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2920,29 +2928,29 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K19" s="2">
         <v>678923456</v>
@@ -2954,7 +2962,7 @@
         <v>28</v>
       </c>
       <c r="N19" s="22" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2962,29 +2970,29 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>70</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -2996,7 +3004,7 @@
         <v>28</v>
       </c>
       <c r="N20" s="23" t="s">
-        <v>104</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3004,29 +3012,29 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K21" s="2">
         <v>918234765</v>
@@ -3038,7 +3046,7 @@
         <v>28</v>
       </c>
       <c r="N21" s="23" t="s">
-        <v>106</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3046,13 +3054,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>11</v>
@@ -3062,13 +3070,13 @@
         <v>65</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="K22" s="1">
         <v>925902123</v>
@@ -3077,10 +3085,10 @@
         <v>89</v>
       </c>
       <c r="M22" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="N22" s="23" t="s">
         <v>99</v>
-      </c>
-      <c r="N22" s="23" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3088,13 +3096,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>12</v>
@@ -3104,13 +3112,13 @@
         <v>64</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I23" s="15" t="s">
         <v>30</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K23" s="1">
         <v>925902123</v>
@@ -3122,7 +3130,7 @@
         <v>29</v>
       </c>
       <c r="N23" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4118,8 +4126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.15234375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4172,28 +4180,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="J2" s="25"/>
     </row>
@@ -4205,22 +4213,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>29</v>
@@ -4235,22 +4243,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>29</v>
@@ -4265,22 +4273,22 @@
         <v>2.5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>29</v>
@@ -4295,22 +4303,22 @@
         <v>2.5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>29</v>
@@ -4323,22 +4331,22 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>29</v>
@@ -4351,22 +4359,22 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>29</v>
@@ -4379,22 +4387,22 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>29</v>
@@ -4407,22 +4415,22 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>29</v>
@@ -4435,22 +4443,22 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>29</v>
@@ -4463,22 +4471,22 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>29</v>
@@ -4491,22 +4499,22 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>29</v>
@@ -4519,22 +4527,22 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>29</v>
@@ -4547,22 +4555,22 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>29</v>
@@ -4575,22 +4583,22 @@
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>29</v>
@@ -4603,22 +4611,22 @@
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>29</v>
@@ -4631,22 +4639,22 @@
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>29</v>
@@ -4656,25 +4664,25 @@
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>29</v>
@@ -4684,25 +4692,25 @@
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>29</v>
@@ -4715,22 +4723,22 @@
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>29</v>
@@ -4743,22 +4751,22 @@
         <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>29</v>
@@ -4771,22 +4779,22 @@
         <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>29</v>
@@ -4799,22 +4807,22 @@
         <v>14</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>29</v>
@@ -4827,22 +4835,22 @@
         <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>29</v>
@@ -4855,22 +4863,22 @@
         <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>29</v>
@@ -4883,22 +4891,22 @@
         <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>29</v>
@@ -4911,22 +4919,22 @@
         <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>29</v>
@@ -4939,22 +4947,22 @@
         <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>29</v>
@@ -4967,22 +4975,22 @@
         <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>29</v>
@@ -4992,55 +5000,55 @@
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>29</v>
@@ -5050,25 +5058,25 @@
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>29</v>
@@ -5078,25 +5086,25 @@
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>29</v>
@@ -5106,25 +5114,25 @@
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>29</v>
@@ -5134,25 +5142,25 @@
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>29</v>
@@ -5162,25 +5170,25 @@
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>29</v>
@@ -5190,25 +5198,25 @@
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>29</v>
@@ -5218,25 +5226,25 @@
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>29</v>
@@ -5246,25 +5254,25 @@
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>29</v>
@@ -5274,25 +5282,25 @@
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>29</v>
@@ -5302,25 +5310,25 @@
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>29</v>
@@ -5330,25 +5338,25 @@
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>29</v>
@@ -5358,25 +5366,25 @@
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>29</v>
@@ -5386,25 +5394,25 @@
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H45" s="26" t="s">
         <v>322</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H45" s="26" t="s">
-        <v>330</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>29</v>
@@ -5414,25 +5422,25 @@
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>29</v>
@@ -5442,25 +5450,25 @@
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>29</v>
@@ -5470,25 +5478,25 @@
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H48" s="26" t="s">
         <v>336</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H48" s="26" t="s">
-        <v>344</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>29</v>
@@ -5501,22 +5509,22 @@
         <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>29</v>
@@ -5529,22 +5537,22 @@
         <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H50" s="26" t="s">
         <v>346</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="H50" s="26" t="s">
-        <v>354</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>29</v>
@@ -5557,22 +5565,22 @@
         <v>13</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>29</v>
@@ -5585,22 +5593,22 @@
         <v>20</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H52" s="26" t="s">
         <v>355</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="H52" s="26" t="s">
-        <v>363</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>29</v>
@@ -5612,22 +5620,22 @@
         <v>27</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>29</v>
@@ -5639,22 +5647,22 @@
         <v>31</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>29</v>
@@ -5666,22 +5674,22 @@
         <v>33</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>29</v>
@@ -5693,22 +5701,22 @@
         <v>34</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>29</v>
@@ -5720,22 +5728,22 @@
         <v>36</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>29</v>
@@ -5747,22 +5755,22 @@
         <v>37</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>29</v>
@@ -5774,22 +5782,22 @@
         <v>39</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="H59" s="26" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>29</v>
@@ -5801,22 +5809,22 @@
         <v>40</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H60" s="26" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>29</v>
@@ -5828,22 +5836,22 @@
         <v>42</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="H61" s="26" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>29</v>
@@ -5855,22 +5863,22 @@
         <v>32</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="H62" s="26" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>29</v>
@@ -5882,22 +5890,22 @@
         <v>35</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>29</v>
@@ -5909,22 +5917,22 @@
         <v>38</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F64" s="29" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="H64" s="26" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>29</v>
@@ -5936,22 +5944,22 @@
         <v>41</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F65" s="29" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="H65" s="26" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>29</v>
